--- a/Info/Exemplo excel.xlsx
+++ b/Info/Exemplo excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\CEAF\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C38405-9E64-4D11-A323-532D847CD07D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B1B72-BDB7-4786-8F6D-B9BE82482050}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{570AC9AF-20DC-488D-8983-B6D091859FF1}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,13 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F5DF67-2746-4161-9C91-10A4CD1D25E2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -493,8 +505,12 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Info/Exemplo excel.xlsx
+++ b/Info/Exemplo excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\CEAF\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B1B72-BDB7-4786-8F6D-B9BE82482050}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0998B4CD-8E6B-44B8-87D3-732179A282B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{570AC9AF-20DC-488D-8983-B6D091859FF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{570AC9AF-20DC-488D-8983-B6D091859FF1}"/>
   </bookViews>
   <sheets>
     <sheet name="alunos" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="empresas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F5DF67-2746-4161-9C91-10A4CD1D25E2}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A8509C-E447-4135-BB59-9CB2AA286235}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
